--- a/season-4/141-ranking-products/data/emerald-cup-winners-2023.xlsx
+++ b/season-4/141-ranking-products/data/emerald-cup-winners-2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keega\Documents\cannlytics\cannabis-data-science\season-4\141-ranking-products\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AADE64-25D5-44B9-9546-9D8FB4ACD18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B27E6E-3228-4CC3-A2B1-418FBE03FCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{24AB33F9-4B90-4896-A880-EB7ED6FFA0E0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="312">
   <si>
     <t>1st</t>
   </si>
@@ -961,6 +961,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 220307R087-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230908R008-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230817P002-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230209L054-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230313S039-001</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1374,7 @@
   <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1649,6 +1661,9 @@
       <c r="C21" t="s">
         <v>88</v>
       </c>
+      <c r="D21" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -1766,6 +1781,9 @@
       <c r="C30" t="s">
         <v>93</v>
       </c>
+      <c r="D30" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -2186,6 +2204,9 @@
       <c r="C63" t="s">
         <v>124</v>
       </c>
+      <c r="D63" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
@@ -3272,7 +3293,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -3283,7 +3304,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -3294,7 +3315,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -3305,7 +3326,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -3316,7 +3337,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -3327,7 +3348,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -3338,7 +3359,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -3349,7 +3370,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -3360,7 +3381,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -3371,7 +3392,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -3382,7 +3403,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -3393,7 +3414,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -3404,15 +3425,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>243</v>
       </c>
       <c r="C173" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D173" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>245</v>
       </c>
@@ -3420,7 +3444,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>247</v>
       </c>
@@ -3428,7 +3452,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>249</v>
       </c>
@@ -3436,28 +3460,37 @@
         <v>250</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>251</v>
       </c>
       <c r="C177" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D177" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>253</v>
       </c>
       <c r="C178" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D178" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>255</v>
       </c>
       <c r="C179" t="s">
         <v>256</v>
+      </c>
+      <c r="D179" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
